--- a/Output.xlsx
+++ b/Output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:AN18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,27 +436,202 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>Variable</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>result_bs</t>
+          <t>Friendly Name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>result_as</t>
+          <t>Baseline Value</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>absolute_change</t>
+          <t>Alternative Value</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>relative_change_pct</t>
+          <t>Absolute Change</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Relative Change (%)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Total Impact Baseline</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Total Impact Alternative</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Total Impact Change</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Total Impact Change (%)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Total in Baseline</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Total in Alternative</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Total Change</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Total Change (%)</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Total Days Lost Baseline</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Total Days Lost Alternative</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Days Lost Change</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Days Lost Change (%)</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Economic Impact Baseline</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Economic Impact Alternative</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Economic Impact Change</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Total Cases Baseline</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Total Cases Alternative</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Cases Change</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Prevalence Rate Baseline (%)</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Prevalence Rate Alternative (%)</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Prevalence Rate Change (%)</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Total Affected Baseline</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Total Affected Alternative</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Affected Change</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Affected Change (%)</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Overall Prevalence Baseline (%)</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Overall Prevalence Alternative (%)</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Prevalence Change (%)</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Total Costs Baseline</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Total Costs Alternative</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Cost Savings</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Additional Costs</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Per Capita Costs Baseline</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Per Capita Costs Alternative</t>
         </is>
       </c>
     </row>
@@ -466,18 +641,65 @@
           <t>mortality</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Mortality Rate</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>0.0124194932659306</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.01223884731925929</v>
-      </c>
       <c r="D2" t="n">
-        <v>-0.0001806459466713161</v>
+        <v>0.01199572758777272</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.454535566011116</v>
-      </c>
+        <v>-0.0004237656781578818</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-3.412101195145895</v>
+      </c>
+      <c r="G2" t="n">
+        <v>407310.8162882004</v>
+      </c>
+      <c r="H2" t="n">
+        <v>393412.9590576722</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-13897.8572305282</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-3.412101195145898</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -485,18 +707,65 @@
           <t>employment</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Employment Rate</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>0.6008851225299069</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>0.6022306085664774</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>0.001345486036570476</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.2239173489444331</v>
       </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>19706682.43160022</v>
+      </c>
+      <c r="L3" t="n">
+        <v>19750809.11246596</v>
+      </c>
+      <c r="M3" t="n">
+        <v>44126.68086573854</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.2239173489444382</v>
+      </c>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -504,18 +773,79 @@
           <t>absence</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>100000</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Absence Days</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>97906.13438320773</v>
+        <v>0.5</v>
       </c>
       <c r="D4" t="n">
-        <v>-2093.865616792275</v>
+        <v>0.4895306719160386</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.093865616792275</v>
-      </c>
+        <v>-0.01046932808396139</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-2.093865616792279</v>
+      </c>
+      <c r="G4" t="n">
+        <v>16398044.89469565</v>
+      </c>
+      <c r="H4" t="n">
+        <v>16054691.87081945</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-343353.0238761939</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-2.09386561679228</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="n">
+        <v>12578494.31336926</v>
+      </c>
+      <c r="P4" t="n">
+        <v>12293394.08299518</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-285100.2303740829</v>
+      </c>
+      <c r="R4" t="n">
+        <v>-2.266568821922187</v>
+      </c>
+      <c r="S4" t="n">
+        <v>6289247156.68463</v>
+      </c>
+      <c r="T4" t="n">
+        <v>6146697041.497589</v>
+      </c>
+      <c r="U4" t="n">
+        <v>-142550115.1870413</v>
+      </c>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -523,18 +853,77 @@
           <t>cancer</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cancer Prevalence</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>0.01472797687002055</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.01471321987249805</v>
-      </c>
       <c r="D5" t="n">
-        <v>-1.475699752249114e-05</v>
+        <v>0.01462334107219707</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.1001970443919536</v>
-      </c>
+        <v>-0.0001046357978234779</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.710456016783057</v>
+      </c>
+      <c r="G5" t="n">
+        <v>483020.051845272</v>
+      </c>
+      <c r="H5" t="n">
+        <v>479588.4068246686</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-3431.645020603377</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-0.7104560167830571</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="n">
+        <v>483020.051845272</v>
+      </c>
+      <c r="W5" t="n">
+        <v>479588.4068246686</v>
+      </c>
+      <c r="X5" t="n">
+        <v>-3431.645020603377</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1.472797687002054</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1.462334107219707</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>-0.0104635797823478</v>
+      </c>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -542,18 +931,77 @@
           <t>diabetes</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Diabetes Prevalence</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>0.002185550222134321</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>0.002119949431152862</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>-6.560079098145814e-05</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>-3.001568681290474</v>
       </c>
+      <c r="G6" t="n">
+        <v>71677.50132434127</v>
+      </c>
+      <c r="H6" t="n">
+        <v>69526.05189305828</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-2151.449431282992</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-3.001568681290474</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="n">
+        <v>71677.50132434127</v>
+      </c>
+      <c r="W6" t="n">
+        <v>69526.05189305828</v>
+      </c>
+      <c r="X6" t="n">
+        <v>-2151.449431282992</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.2185550222134321</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.2119949431152862</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>-0.006560079098145821</v>
+      </c>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -561,18 +1009,77 @@
           <t>hypertension</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hypertension Prevalence</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>0.2792093878113719</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>0.2696466321211046</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>-0.009562755690267377</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>-3.42494060290257</v>
       </c>
+      <c r="G7" t="n">
+        <v>9156976.15270273</v>
+      </c>
+      <c r="H7" t="n">
+        <v>8843355.158450708</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-313620.9942520224</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-3.42494060290258</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="n">
+        <v>9156976.15270273</v>
+      </c>
+      <c r="W7" t="n">
+        <v>8843355.158450708</v>
+      </c>
+      <c r="X7" t="n">
+        <v>-313620.9942520224</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>27.9209387811372</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>26.96466321211046</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>-0.9562755690267402</v>
+      </c>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr"/>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -580,18 +1087,77 @@
           <t>heart_disease</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Heart Disease Prevalence</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>0.3169596721056587</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>0.308726674879951</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>-0.008232997225707694</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>-2.597490453915922</v>
       </c>
+      <c r="G8" t="n">
+        <v>10395037.86599321</v>
+      </c>
+      <c r="H8" t="n">
+        <v>10125027.74974309</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-270010.1162501201</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-2.597490453915933</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="n">
+        <v>10395037.86599321</v>
+      </c>
+      <c r="W8" t="n">
+        <v>10125027.74974309</v>
+      </c>
+      <c r="X8" t="n">
+        <v>-270010.1162501201</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>31.69596721056587</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>30.8726674879951</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>-0.8232997225707699</v>
+      </c>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -599,227 +1165,733 @@
           <t>earnings</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>10000</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Earnings</t>
+        </is>
       </c>
       <c r="C9" t="n">
         <v>10000</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>mortality2</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.0124194932659306</v>
+          <t>body_fat_prc</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Body Fat Percentage</t>
+        </is>
       </c>
       <c r="C10" t="n">
-        <v>0.01199572758777272</v>
+        <v>0.5000000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.0004237656781578818</v>
+        <v>0.4993932849773494</v>
       </c>
       <c r="E10" t="n">
-        <v>-3.412101195145895</v>
-      </c>
+        <v>-0.0006067150226506945</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.1213430045301389</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="n">
+        <v>16398044.89469565</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>16378147.01433623</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>-19897.88035942242</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>-0.1213430045301246</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>50.00000000000001</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>49.93932849773494</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>-0.06067150226507323</v>
+      </c>
+      <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr"/>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>body_fat_prc</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.5000000000000001</v>
+          <t>public_health_costs</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Public Health Costs</t>
+        </is>
       </c>
       <c r="C11" t="n">
-        <v>0.4993932849773494</v>
+        <v>4561.844917532106</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.0006067150226506945</v>
+        <v>4559.647230968163</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1213430045301389</v>
+        <v>-2.197686563942625</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.04817538964326615</v>
+      </c>
+      <c r="G11" t="n">
+        <v>149610675520.6613</v>
+      </c>
+      <c r="H11" t="n">
+        <v>149538599994.7812</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-72075525.88000488</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-0.04817538964326863</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="n">
+        <v>149610675520.6613</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>149538599994.7812</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>72075525.88000488</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>4561.844917532106</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>4559.647230968163</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>public_health_costs</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>4561.844917532106</v>
+          <t>life_expectancy</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Life Expectancy</t>
+        </is>
       </c>
       <c r="C12" t="n">
-        <v>4559.647230968163</v>
+        <v>79</v>
       </c>
       <c r="D12" t="n">
-        <v>-2.197686563942625</v>
+        <v>79.34362774853382</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.04817538964326615</v>
-      </c>
+        <v>0.3436277485338195</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.4349718335871133</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="inlineStr"/>
+      <c r="AH12" t="inlineStr"/>
+      <c r="AI12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="inlineStr"/>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>life_expectancy</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>79</v>
+          <t>stroke</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Stroke Prevalence</t>
+        </is>
       </c>
       <c r="C13" t="n">
-        <v>79.34362774853382</v>
+        <v>0.5</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3436277485338195</v>
+        <v>0.4883623956930155</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4349718335871133</v>
-      </c>
+        <v>-0.01163760430698446</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-2.327520861396892</v>
+      </c>
+      <c r="G13" t="n">
+        <v>16398044.89469565</v>
+      </c>
+      <c r="H13" t="n">
+        <v>16016376.97891038</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-381667.9157852698</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-2.327520861396896</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="n">
+        <v>16398044.89469565</v>
+      </c>
+      <c r="W13" t="n">
+        <v>16016376.97891038</v>
+      </c>
+      <c r="X13" t="n">
+        <v>-381667.9157852698</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>48.83623956930155</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>-1.163760430698446</v>
+      </c>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="inlineStr"/>
+      <c r="AH13" t="inlineStr"/>
+      <c r="AI13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="inlineStr"/>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>stroke</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
+          <t>colorectal_cancer</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Colorectal Cancer Prevalence</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
         <v>0.5</v>
       </c>
-      <c r="C14" t="n">
-        <v>0.4883623956930155</v>
-      </c>
       <c r="D14" t="n">
-        <v>-0.01163760430698446</v>
+        <v>0.4942365598477791</v>
       </c>
       <c r="E14" t="n">
-        <v>-2.327520861396892</v>
-      </c>
+        <v>-0.005763440152220911</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-1.152688030444182</v>
+      </c>
+      <c r="G14" t="n">
+        <v>16398044.89469565</v>
+      </c>
+      <c r="H14" t="n">
+        <v>16209026.59396763</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-189018.3007280193</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-1.152688030444178</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="n">
+        <v>16398044.89469565</v>
+      </c>
+      <c r="W14" t="n">
+        <v>16209026.59396763</v>
+      </c>
+      <c r="X14" t="n">
+        <v>-189018.3007280193</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>49.42365598477791</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>-0.5763440152220909</v>
+      </c>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="inlineStr"/>
+      <c r="AH14" t="inlineStr"/>
+      <c r="AI14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="inlineStr"/>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>cancer2</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
+          <t>breast_cancer</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Breast Cancer Prevalence</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
         <v>0.5</v>
       </c>
-      <c r="C15" t="n">
-        <v>0.4964044976308279</v>
-      </c>
       <c r="D15" t="n">
-        <v>-0.003595502369172054</v>
+        <v>0.4940754329502459</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.7191004738344109</v>
-      </c>
+        <v>-0.005924567049754137</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-1.184913409950827</v>
+      </c>
+      <c r="G15" t="n">
+        <v>16398044.89469565</v>
+      </c>
+      <c r="H15" t="n">
+        <v>16203742.26176864</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-194302.6329270061</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1.18491340995083</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="n">
+        <v>16398044.89469565</v>
+      </c>
+      <c r="W15" t="n">
+        <v>16203742.26176864</v>
+      </c>
+      <c r="X15" t="n">
+        <v>-194302.6329270061</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>49.40754329502459</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>-0.5924567049754117</v>
+      </c>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="inlineStr"/>
+      <c r="AH15" t="inlineStr"/>
+      <c r="AI15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="inlineStr"/>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>colorectal_cancer</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
+          <t>endometrial_cancer</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Endometrial Cancer Prevalence</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
         <v>0.5</v>
       </c>
-      <c r="C16" t="n">
-        <v>0.4942365598477791</v>
-      </c>
       <c r="D16" t="n">
-        <v>-0.005763440152220911</v>
+        <v>0.4961351580935027</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.152688030444182</v>
-      </c>
+        <v>-0.003864841906497274</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.7729683812994548</v>
+      </c>
+      <c r="G16" t="n">
+        <v>16398044.89469565</v>
+      </c>
+      <c r="H16" t="n">
+        <v>16271293.19250836</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-126751.7021872867</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-0.7729683812994539</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="n">
+        <v>16398044.89469565</v>
+      </c>
+      <c r="W16" t="n">
+        <v>16271293.19250836</v>
+      </c>
+      <c r="X16" t="n">
+        <v>-126751.7021872867</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>49.61351580935028</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>-0.3864841906497247</v>
+      </c>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="inlineStr"/>
+      <c r="AH16" t="inlineStr"/>
+      <c r="AI16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="inlineStr"/>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>breast_cancer</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0.5</v>
+          <t>depression</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Depression Prevalence</t>
+        </is>
       </c>
       <c r="C17" t="n">
-        <v>0.4940754329502459</v>
+        <v>0.5000000000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.005924567049754137</v>
+        <v>0.4881070872092389</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.184913409950827</v>
-      </c>
+        <v>-0.01189291279076121</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-2.378582558152242</v>
+      </c>
+      <c r="G17" t="n">
+        <v>16398044.89469565</v>
+      </c>
+      <c r="H17" t="n">
+        <v>16008003.85895245</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-390041.0357432049</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-2.378582558152242</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="n">
+        <v>16398044.89469565</v>
+      </c>
+      <c r="W17" t="n">
+        <v>16008003.85895245</v>
+      </c>
+      <c r="X17" t="n">
+        <v>-390041.0357432049</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>50.00000000000001</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>48.81070872092389</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>-1.189291279076123</v>
+      </c>
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="inlineStr"/>
+      <c r="AD17" t="inlineStr"/>
+      <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="inlineStr"/>
+      <c r="AH17" t="inlineStr"/>
+      <c r="AI17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="inlineStr"/>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>endometrial_cancer</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
+          <t>anxiety</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Anxiety Prevalence</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
         <v>0.5</v>
       </c>
-      <c r="C18" t="n">
-        <v>0.4961351580935027</v>
-      </c>
       <c r="D18" t="n">
-        <v>-0.003864841906497274</v>
+        <v>0.489842853830337</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.7729683812994548</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.5000000000000001</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.4881070872092389</v>
-      </c>
-      <c r="D19" t="n">
-        <v>-0.01189291279076121</v>
-      </c>
-      <c r="E19" t="n">
-        <v>-2.378582558152242</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>anxiety</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.489842853830337</v>
-      </c>
-      <c r="D20" t="n">
         <v>-0.01015714616966301</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F18" t="n">
         <v>-2.031429233932602</v>
       </c>
+      <c r="G18" t="n">
+        <v>16398044.89469565</v>
+      </c>
+      <c r="H18" t="n">
+        <v>16064930.21691141</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-333114.6777842399</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-2.031429233932601</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="n">
+        <v>16398044.89469565</v>
+      </c>
+      <c r="W18" t="n">
+        <v>16064930.21691141</v>
+      </c>
+      <c r="X18" t="n">
+        <v>-333114.6777842399</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>48.9842853830337</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>-1.015714616966299</v>
+      </c>
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr"/>
+      <c r="AE18" t="inlineStr"/>
+      <c r="AF18" t="inlineStr"/>
+      <c r="AG18" t="inlineStr"/>
+      <c r="AH18" t="inlineStr"/>
+      <c r="AI18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="inlineStr"/>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Output.xlsx
+++ b/Output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN18"/>
+  <dimension ref="A1:AG15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,65 +571,30 @@
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Total Affected Baseline</t>
+          <t>Total Costs Baseline</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>Total Affected Alternative</t>
+          <t>Total Costs Alternative</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>Affected Change</t>
+          <t>Cost Savings</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>Affected Change (%)</t>
+          <t>Additional Costs</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>Overall Prevalence Baseline (%)</t>
+          <t>Per Capita Costs Baseline</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>Overall Prevalence Alternative (%)</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>Prevalence Change (%)</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>Total Costs Baseline</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>Total Costs Alternative</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Cost Savings</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Additional Costs</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Per Capita Costs Baseline</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Per Capita Costs Alternative</t>
         </is>
@@ -650,25 +615,25 @@
         <v>0.0124194932659306</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01199572758777272</v>
+        <v>0.01268690508345157</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.0004237656781578818</v>
+        <v>0.0002674118175209714</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.412101195145895</v>
+        <v>2.153162063822208</v>
       </c>
       <c r="G2" t="n">
         <v>407310.8162882004</v>
       </c>
       <c r="H2" t="n">
-        <v>393412.9590576722</v>
+        <v>416080.8782663625</v>
       </c>
       <c r="I2" t="n">
-        <v>-13897.8572305282</v>
+        <v>8770.061978162092</v>
       </c>
       <c r="J2" t="n">
-        <v>-3.412101195145898</v>
+        <v>2.153162063822206</v>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
@@ -693,13 +658,6 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="inlineStr"/>
-      <c r="AM2" t="inlineStr"/>
-      <c r="AN2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -716,13 +674,13 @@
         <v>0.6008851225299069</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6022306085664774</v>
+        <v>0.6012357883305818</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001345486036570476</v>
+        <v>0.0003506658006748875</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2239173489444331</v>
+        <v>0.0583582098352642</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
@@ -732,13 +690,13 @@
         <v>19706682.43160022</v>
       </c>
       <c r="L3" t="n">
-        <v>19750809.11246596</v>
+        <v>19718182.89868522</v>
       </c>
       <c r="M3" t="n">
-        <v>44126.68086573854</v>
+        <v>11500.46708500013</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2239173489444382</v>
+        <v>0.05835820983525267</v>
       </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
@@ -759,13 +717,6 @@
       <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="inlineStr"/>
-      <c r="AM3" t="inlineStr"/>
-      <c r="AN3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -782,25 +733,25 @@
         <v>0.5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4895306719160386</v>
+        <v>0.495949831696369</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.01046932808396139</v>
+        <v>-0.004050168303630974</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.093865616792279</v>
+        <v>-0.8100336607261949</v>
       </c>
       <c r="G4" t="n">
         <v>16398044.89469565</v>
       </c>
       <c r="H4" t="n">
-        <v>16054691.87081945</v>
+        <v>16265215.21134762</v>
       </c>
       <c r="I4" t="n">
-        <v>-343353.0238761939</v>
+        <v>-132829.683348028</v>
       </c>
       <c r="J4" t="n">
-        <v>-2.09386561679228</v>
+        <v>-0.8100336607261945</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
@@ -810,22 +761,22 @@
         <v>12578494.31336926</v>
       </c>
       <c r="P4" t="n">
-        <v>12293394.08299518</v>
+        <v>12405990.81485661</v>
       </c>
       <c r="Q4" t="n">
-        <v>-285100.2303740829</v>
+        <v>-172503.4985126555</v>
       </c>
       <c r="R4" t="n">
-        <v>-2.266568821922187</v>
+        <v>-1.371416118774306</v>
       </c>
       <c r="S4" t="n">
         <v>6289247156.68463</v>
       </c>
       <c r="T4" t="n">
-        <v>6146697041.497589</v>
+        <v>6202995407.428303</v>
       </c>
       <c r="U4" t="n">
-        <v>-142550115.1870413</v>
+        <v>-86251749.25632763</v>
       </c>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
@@ -839,13 +790,6 @@
       <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr"/>
-      <c r="AK4" t="inlineStr"/>
-      <c r="AL4" t="inlineStr"/>
-      <c r="AM4" t="inlineStr"/>
-      <c r="AN4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -862,25 +806,25 @@
         <v>0.01472797687002055</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01462334107219707</v>
+        <v>0.01477426095201467</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.0001046357978234779</v>
+        <v>4.628408199412737e-05</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.710456016783057</v>
+        <v>0.3142596053931935</v>
       </c>
       <c r="G5" t="n">
         <v>483020.051845272</v>
       </c>
       <c r="H5" t="n">
-        <v>479588.4068246686</v>
+        <v>484537.9887541709</v>
       </c>
       <c r="I5" t="n">
-        <v>-3431.645020603377</v>
+        <v>1517.936908898933</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.7104560167830571</v>
+        <v>0.31425960539319</v>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
@@ -897,19 +841,19 @@
         <v>483020.051845272</v>
       </c>
       <c r="W5" t="n">
-        <v>479588.4068246686</v>
+        <v>484537.9887541709</v>
       </c>
       <c r="X5" t="n">
-        <v>-3431.645020603377</v>
+        <v>1517.936908898933</v>
       </c>
       <c r="Y5" t="n">
         <v>1.472797687002054</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.462334107219707</v>
+        <v>1.477426095201467</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0.0104635797823478</v>
+        <v>0.004628408199412792</v>
       </c>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr"/>
@@ -917,13 +861,6 @@
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="inlineStr"/>
-      <c r="AH5" t="inlineStr"/>
-      <c r="AI5" t="inlineStr"/>
-      <c r="AJ5" t="inlineStr"/>
-      <c r="AK5" t="inlineStr"/>
-      <c r="AL5" t="inlineStr"/>
-      <c r="AM5" t="inlineStr"/>
-      <c r="AN5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -940,25 +877,25 @@
         <v>0.002185550222134321</v>
       </c>
       <c r="D6" t="n">
-        <v>0.002119949431152862</v>
+        <v>0.002185295615574064</v>
       </c>
       <c r="E6" t="n">
-        <v>-6.560079098145814e-05</v>
+        <v>-2.546065602567621e-07</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.001568681290474</v>
+        <v>-0.01164954059065838</v>
       </c>
       <c r="G6" t="n">
         <v>71677.50132434127</v>
       </c>
       <c r="H6" t="n">
-        <v>69526.05189305828</v>
+        <v>71669.15122473011</v>
       </c>
       <c r="I6" t="n">
-        <v>-2151.449431282992</v>
+        <v>-8.350099611154292</v>
       </c>
       <c r="J6" t="n">
-        <v>-3.001568681290474</v>
+        <v>-0.011649540590666</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
@@ -975,19 +912,19 @@
         <v>71677.50132434127</v>
       </c>
       <c r="W6" t="n">
-        <v>69526.05189305828</v>
+        <v>71669.15122473011</v>
       </c>
       <c r="X6" t="n">
-        <v>-2151.449431282992</v>
+        <v>-8.350099611154292</v>
       </c>
       <c r="Y6" t="n">
         <v>0.2185550222134321</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.2119949431152862</v>
+        <v>0.2185295615574064</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0.006560079098145821</v>
+        <v>-2.546065602568315e-05</v>
       </c>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr"/>
@@ -995,13 +932,6 @@
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="inlineStr"/>
-      <c r="AH6" t="inlineStr"/>
-      <c r="AI6" t="inlineStr"/>
-      <c r="AJ6" t="inlineStr"/>
-      <c r="AK6" t="inlineStr"/>
-      <c r="AL6" t="inlineStr"/>
-      <c r="AM6" t="inlineStr"/>
-      <c r="AN6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1018,25 +948,25 @@
         <v>0.2792093878113719</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2696466321211046</v>
+        <v>0.2783741219645466</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.009562755690267377</v>
+        <v>-0.000835265846825306</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.42494060290257</v>
+        <v>-0.2991539265110936</v>
       </c>
       <c r="G7" t="n">
         <v>9156976.15270273</v>
       </c>
       <c r="H7" t="n">
-        <v>8843355.158450708</v>
+        <v>9129582.698992236</v>
       </c>
       <c r="I7" t="n">
-        <v>-313620.9942520224</v>
+        <v>-27393.45371049456</v>
       </c>
       <c r="J7" t="n">
-        <v>-3.42494060290258</v>
+        <v>-0.2991539265110922</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
@@ -1053,19 +983,19 @@
         <v>9156976.15270273</v>
       </c>
       <c r="W7" t="n">
-        <v>8843355.158450708</v>
+        <v>9129582.698992236</v>
       </c>
       <c r="X7" t="n">
-        <v>-313620.9942520224</v>
+        <v>-27393.45371049456</v>
       </c>
       <c r="Y7" t="n">
         <v>27.9209387811372</v>
       </c>
       <c r="Z7" t="n">
-        <v>26.96466321211046</v>
+        <v>27.83741219645466</v>
       </c>
       <c r="AA7" t="n">
-        <v>-0.9562755690267402</v>
+        <v>-0.08352658468253082</v>
       </c>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
@@ -1073,13 +1003,6 @@
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="inlineStr"/>
-      <c r="AH7" t="inlineStr"/>
-      <c r="AI7" t="inlineStr"/>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
-      <c r="AL7" t="inlineStr"/>
-      <c r="AM7" t="inlineStr"/>
-      <c r="AN7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1096,25 +1019,25 @@
         <v>0.3169596721056587</v>
       </c>
       <c r="D8" t="n">
-        <v>0.308726674879951</v>
+        <v>0.3151279577289355</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.008232997225707694</v>
+        <v>-0.001831714376723248</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.597490453915922</v>
+        <v>-0.5779013981667185</v>
       </c>
       <c r="G8" t="n">
         <v>10395037.86599321</v>
       </c>
       <c r="H8" t="n">
-        <v>10125027.74974309</v>
+        <v>10334964.79682567</v>
       </c>
       <c r="I8" t="n">
-        <v>-270010.1162501201</v>
+        <v>-60073.06916753575</v>
       </c>
       <c r="J8" t="n">
-        <v>-2.597490453915933</v>
+        <v>-0.5779013981667299</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
@@ -1131,19 +1054,19 @@
         <v>10395037.86599321</v>
       </c>
       <c r="W8" t="n">
-        <v>10125027.74974309</v>
+        <v>10334964.79682567</v>
       </c>
       <c r="X8" t="n">
-        <v>-270010.1162501201</v>
+        <v>-60073.06916753575</v>
       </c>
       <c r="Y8" t="n">
         <v>31.69596721056587</v>
       </c>
       <c r="Z8" t="n">
-        <v>30.8726674879951</v>
+        <v>31.51279577289355</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0.8232997225707699</v>
+        <v>-0.1831714376723248</v>
       </c>
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
@@ -1151,41 +1074,42 @@
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="inlineStr"/>
-      <c r="AH8" t="inlineStr"/>
-      <c r="AI8" t="inlineStr"/>
-      <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="inlineStr"/>
-      <c r="AL8" t="inlineStr"/>
-      <c r="AM8" t="inlineStr"/>
-      <c r="AN8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>earnings</t>
+          <t>public_health_costs</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Earnings</t>
+          <t>Public Health Costs</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>10000</v>
+        <v>4561.844917532106</v>
       </c>
       <c r="D9" t="n">
-        <v>10000</v>
+        <v>4561.758083863504</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>-0.08683366860168462</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+        <v>-0.00190347699607159</v>
+      </c>
+      <c r="G9" t="n">
+        <v>149610675520.6613</v>
+      </c>
+      <c r="H9" t="n">
+        <v>149607827715.869</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-2847804.792205811</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-0.001903476996073404</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
@@ -1203,47 +1127,60 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr"/>
-      <c r="AH9" t="inlineStr"/>
-      <c r="AI9" t="inlineStr"/>
-      <c r="AJ9" t="inlineStr"/>
-      <c r="AK9" t="inlineStr"/>
-      <c r="AL9" t="inlineStr"/>
-      <c r="AM9" t="inlineStr"/>
-      <c r="AN9" t="inlineStr"/>
+      <c r="AB9" t="n">
+        <v>149610675520.6613</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>149607827715.869</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>2847804.792205811</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>4561.844917532106</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>4561.758083863504</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>body_fat_prc</t>
+          <t>stroke</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Body Fat Percentage</t>
+          <t>Stroke Prevalence</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.5000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4993932849773494</v>
+        <v>0.4947110524481615</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.0006067150226506945</v>
+        <v>-0.005288947551838452</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1213430045301389</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+        <v>-1.05778951036769</v>
+      </c>
+      <c r="G10" t="n">
+        <v>16398044.89469565</v>
+      </c>
+      <c r="H10" t="n">
+        <v>16224588.09589417</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-173456.7988014743</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-1.057789510367685</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
@@ -1255,74 +1192,65 @@
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="n">
+      <c r="V10" t="n">
         <v>16398044.89469565</v>
       </c>
-      <c r="AC10" t="n">
-        <v>16378147.01433623</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>-19897.88035942242</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>-0.1213430045301246</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>50.00000000000001</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>49.93932849773494</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>-0.06067150226507323</v>
-      </c>
-      <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
-      <c r="AL10" t="inlineStr"/>
-      <c r="AM10" t="inlineStr"/>
-      <c r="AN10" t="inlineStr"/>
+      <c r="W10" t="n">
+        <v>16224588.09589417</v>
+      </c>
+      <c r="X10" t="n">
+        <v>-173456.7988014743</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>49.47110524481616</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>-0.5288947551838419</v>
+      </c>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>public_health_costs</t>
+          <t>colorectal_cancer</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Public Health Costs</t>
+          <t>Colorectal Cancer Prevalence</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4561.844917532106</v>
+        <v>0.5</v>
       </c>
       <c r="D11" t="n">
-        <v>4559.647230968163</v>
+        <v>0.4965240233579161</v>
       </c>
       <c r="E11" t="n">
-        <v>-2.197686563942625</v>
+        <v>-0.003475976642083933</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.04817538964326615</v>
+        <v>-0.6951953284167867</v>
       </c>
       <c r="G11" t="n">
-        <v>149610675520.6613</v>
+        <v>16398044.89469565</v>
       </c>
       <c r="H11" t="n">
-        <v>149538599994.7812</v>
+        <v>16284046.45263604</v>
       </c>
       <c r="I11" t="n">
-        <v>-72075525.88000488</v>
+        <v>-113998.4420596119</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.04817538964326863</v>
+        <v>-0.695195328416789</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
@@ -1335,65 +1263,66 @@
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
+      <c r="V11" t="n">
+        <v>16398044.89469565</v>
+      </c>
+      <c r="W11" t="n">
+        <v>16284046.45263604</v>
+      </c>
+      <c r="X11" t="n">
+        <v>-113998.4420596119</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>49.65240233579161</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>-0.3475976642083936</v>
+      </c>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="inlineStr"/>
-      <c r="AI11" t="n">
-        <v>149610675520.6613</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>149538599994.7812</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>72075525.88000488</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>4561.844917532106</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>4559.647230968163</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>life_expectancy</t>
+          <t>breast_cancer</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Life Expectancy</t>
+          <t>Breast Cancer Prevalence</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>79</v>
+        <v>0.5</v>
       </c>
       <c r="D12" t="n">
-        <v>79.34362774853382</v>
+        <v>0.4972344043794172</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3436277485338195</v>
+        <v>-0.002765595620582761</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4349718335871133</v>
-      </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+        <v>-0.5531191241165523</v>
+      </c>
+      <c r="G12" t="n">
+        <v>16398044.89469565</v>
+      </c>
+      <c r="H12" t="n">
+        <v>16307344.17240187</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-90700.72229377925</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-0.5531191241165503</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
@@ -1405,60 +1334,65 @@
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
+      <c r="V12" t="n">
+        <v>16398044.89469565</v>
+      </c>
+      <c r="W12" t="n">
+        <v>16307344.17240187</v>
+      </c>
+      <c r="X12" t="n">
+        <v>-90700.72229377925</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>49.72344043794173</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>-0.2765595620582744</v>
+      </c>
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="inlineStr"/>
       <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="inlineStr"/>
-      <c r="AH12" t="inlineStr"/>
-      <c r="AI12" t="inlineStr"/>
-      <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="inlineStr"/>
-      <c r="AL12" t="inlineStr"/>
-      <c r="AM12" t="inlineStr"/>
-      <c r="AN12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>stroke</t>
+          <t>endometrial_cancer</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Stroke Prevalence</t>
+          <t>Endometrial Cancer Prevalence</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>0.5</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4883623956930155</v>
+        <v>0.4977200936478789</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.01163760430698446</v>
+        <v>-0.002279906352121053</v>
       </c>
       <c r="F13" t="n">
-        <v>-2.327520861396892</v>
+        <v>-0.4559812704242105</v>
       </c>
       <c r="G13" t="n">
         <v>16398044.89469565</v>
       </c>
       <c r="H13" t="n">
-        <v>16016376.97891038</v>
+        <v>16323272.88126008</v>
       </c>
       <c r="I13" t="n">
-        <v>-381667.9157852698</v>
+        <v>-74772.01343556494</v>
       </c>
       <c r="J13" t="n">
-        <v>-2.327520861396896</v>
+        <v>-0.4559812704242065</v>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
@@ -1475,19 +1409,19 @@
         <v>16398044.89469565</v>
       </c>
       <c r="W13" t="n">
-        <v>16016376.97891038</v>
+        <v>16323272.88126008</v>
       </c>
       <c r="X13" t="n">
-        <v>-381667.9157852698</v>
+        <v>-74772.01343556494</v>
       </c>
       <c r="Y13" t="n">
         <v>50</v>
       </c>
       <c r="Z13" t="n">
-        <v>48.83623956930155</v>
+        <v>49.77200936478789</v>
       </c>
       <c r="AA13" t="n">
-        <v>-1.163760430698446</v>
+        <v>-0.2279906352121088</v>
       </c>
       <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="inlineStr"/>
@@ -1495,48 +1429,41 @@
       <c r="AE13" t="inlineStr"/>
       <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="inlineStr"/>
-      <c r="AH13" t="inlineStr"/>
-      <c r="AI13" t="inlineStr"/>
-      <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr"/>
-      <c r="AL13" t="inlineStr"/>
-      <c r="AM13" t="inlineStr"/>
-      <c r="AN13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>colorectal_cancer</t>
+          <t>depression</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Colorectal Cancer Prevalence</t>
+          <t>Depression Prevalence</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.5</v>
+        <v>0.5000000000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4942365598477791</v>
+        <v>0.4953096574934138</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.005763440152220911</v>
+        <v>-0.004690342506586287</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.152688030444182</v>
+        <v>-0.9380685013172572</v>
       </c>
       <c r="G14" t="n">
         <v>16398044.89469565</v>
       </c>
       <c r="H14" t="n">
-        <v>16209026.59396763</v>
+        <v>16244220.00070665</v>
       </c>
       <c r="I14" t="n">
-        <v>-189018.3007280193</v>
+        <v>-153824.8939890023</v>
       </c>
       <c r="J14" t="n">
-        <v>-1.152688030444178</v>
+        <v>-0.9380685013172562</v>
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
@@ -1553,19 +1480,19 @@
         <v>16398044.89469565</v>
       </c>
       <c r="W14" t="n">
-        <v>16209026.59396763</v>
+        <v>16244220.00070665</v>
       </c>
       <c r="X14" t="n">
-        <v>-189018.3007280193</v>
+        <v>-153824.8939890023</v>
       </c>
       <c r="Y14" t="n">
-        <v>50</v>
+        <v>50.00000000000001</v>
       </c>
       <c r="Z14" t="n">
-        <v>49.42365598477791</v>
+        <v>49.53096574934138</v>
       </c>
       <c r="AA14" t="n">
-        <v>-0.5763440152220909</v>
+        <v>-0.4690342506586305</v>
       </c>
       <c r="AB14" t="inlineStr"/>
       <c r="AC14" t="inlineStr"/>
@@ -1573,48 +1500,41 @@
       <c r="AE14" t="inlineStr"/>
       <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="inlineStr"/>
-      <c r="AH14" t="inlineStr"/>
-      <c r="AI14" t="inlineStr"/>
-      <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr"/>
-      <c r="AL14" t="inlineStr"/>
-      <c r="AM14" t="inlineStr"/>
-      <c r="AN14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>breast_cancer</t>
+          <t>anxiety</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Breast Cancer Prevalence</t>
+          <t>Anxiety Prevalence</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>0.5</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4940754329502459</v>
+        <v>0.4959862318274226</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.005924567049754137</v>
+        <v>-0.00401376817257737</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.184913409950827</v>
+        <v>-0.802753634515474</v>
       </c>
       <c r="G15" t="n">
         <v>16398044.89469565</v>
       </c>
       <c r="H15" t="n">
-        <v>16203742.26176864</v>
+        <v>16266408.993314</v>
       </c>
       <c r="I15" t="n">
-        <v>-194302.6329270061</v>
+        <v>-131635.9013816491</v>
       </c>
       <c r="J15" t="n">
-        <v>-1.18491340995083</v>
+        <v>-0.802753634515478</v>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
@@ -1631,19 +1551,19 @@
         <v>16398044.89469565</v>
       </c>
       <c r="W15" t="n">
-        <v>16203742.26176864</v>
+        <v>16266408.993314</v>
       </c>
       <c r="X15" t="n">
-        <v>-194302.6329270061</v>
+        <v>-131635.9013816491</v>
       </c>
       <c r="Y15" t="n">
         <v>50</v>
       </c>
       <c r="Z15" t="n">
-        <v>49.40754329502459</v>
+        <v>49.59862318274227</v>
       </c>
       <c r="AA15" t="n">
-        <v>-0.5924567049754117</v>
+        <v>-0.4013768172577343</v>
       </c>
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr"/>
@@ -1651,247 +1571,6 @@
       <c r="AE15" t="inlineStr"/>
       <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="inlineStr"/>
-      <c r="AH15" t="inlineStr"/>
-      <c r="AI15" t="inlineStr"/>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr"/>
-      <c r="AL15" t="inlineStr"/>
-      <c r="AM15" t="inlineStr"/>
-      <c r="AN15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>endometrial_cancer</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Endometrial Cancer Prevalence</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.4961351580935027</v>
-      </c>
-      <c r="E16" t="n">
-        <v>-0.003864841906497274</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-0.7729683812994548</v>
-      </c>
-      <c r="G16" t="n">
-        <v>16398044.89469565</v>
-      </c>
-      <c r="H16" t="n">
-        <v>16271293.19250836</v>
-      </c>
-      <c r="I16" t="n">
-        <v>-126751.7021872867</v>
-      </c>
-      <c r="J16" t="n">
-        <v>-0.7729683812994539</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="n">
-        <v>16398044.89469565</v>
-      </c>
-      <c r="W16" t="n">
-        <v>16271293.19250836</v>
-      </c>
-      <c r="X16" t="n">
-        <v>-126751.7021872867</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>49.61351580935028</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>-0.3864841906497247</v>
-      </c>
-      <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="inlineStr"/>
-      <c r="AE16" t="inlineStr"/>
-      <c r="AF16" t="inlineStr"/>
-      <c r="AG16" t="inlineStr"/>
-      <c r="AH16" t="inlineStr"/>
-      <c r="AI16" t="inlineStr"/>
-      <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr"/>
-      <c r="AL16" t="inlineStr"/>
-      <c r="AM16" t="inlineStr"/>
-      <c r="AN16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Depression Prevalence</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.5000000000000001</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.4881070872092389</v>
-      </c>
-      <c r="E17" t="n">
-        <v>-0.01189291279076121</v>
-      </c>
-      <c r="F17" t="n">
-        <v>-2.378582558152242</v>
-      </c>
-      <c r="G17" t="n">
-        <v>16398044.89469565</v>
-      </c>
-      <c r="H17" t="n">
-        <v>16008003.85895245</v>
-      </c>
-      <c r="I17" t="n">
-        <v>-390041.0357432049</v>
-      </c>
-      <c r="J17" t="n">
-        <v>-2.378582558152242</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="n">
-        <v>16398044.89469565</v>
-      </c>
-      <c r="W17" t="n">
-        <v>16008003.85895245</v>
-      </c>
-      <c r="X17" t="n">
-        <v>-390041.0357432049</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>50.00000000000001</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>48.81070872092389</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>-1.189291279076123</v>
-      </c>
-      <c r="AB17" t="inlineStr"/>
-      <c r="AC17" t="inlineStr"/>
-      <c r="AD17" t="inlineStr"/>
-      <c r="AE17" t="inlineStr"/>
-      <c r="AF17" t="inlineStr"/>
-      <c r="AG17" t="inlineStr"/>
-      <c r="AH17" t="inlineStr"/>
-      <c r="AI17" t="inlineStr"/>
-      <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="inlineStr"/>
-      <c r="AL17" t="inlineStr"/>
-      <c r="AM17" t="inlineStr"/>
-      <c r="AN17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>anxiety</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Anxiety Prevalence</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.489842853830337</v>
-      </c>
-      <c r="E18" t="n">
-        <v>-0.01015714616966301</v>
-      </c>
-      <c r="F18" t="n">
-        <v>-2.031429233932602</v>
-      </c>
-      <c r="G18" t="n">
-        <v>16398044.89469565</v>
-      </c>
-      <c r="H18" t="n">
-        <v>16064930.21691141</v>
-      </c>
-      <c r="I18" t="n">
-        <v>-333114.6777842399</v>
-      </c>
-      <c r="J18" t="n">
-        <v>-2.031429233932601</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="n">
-        <v>16398044.89469565</v>
-      </c>
-      <c r="W18" t="n">
-        <v>16064930.21691141</v>
-      </c>
-      <c r="X18" t="n">
-        <v>-333114.6777842399</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>48.9842853830337</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>-1.015714616966299</v>
-      </c>
-      <c r="AB18" t="inlineStr"/>
-      <c r="AC18" t="inlineStr"/>
-      <c r="AD18" t="inlineStr"/>
-      <c r="AE18" t="inlineStr"/>
-      <c r="AF18" t="inlineStr"/>
-      <c r="AG18" t="inlineStr"/>
-      <c r="AH18" t="inlineStr"/>
-      <c r="AI18" t="inlineStr"/>
-      <c r="AJ18" t="inlineStr"/>
-      <c r="AK18" t="inlineStr"/>
-      <c r="AL18" t="inlineStr"/>
-      <c r="AM18" t="inlineStr"/>
-      <c r="AN18" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Output.xlsx
+++ b/Output.xlsx
@@ -615,25 +615,25 @@
         <v>0.0124194932659306</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01268690508345157</v>
+        <v>0.01199572758777272</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0002674118175209714</v>
+        <v>-0.0004237656781578818</v>
       </c>
       <c r="F2" t="n">
-        <v>2.153162063822208</v>
+        <v>-3.412101195145895</v>
       </c>
       <c r="G2" t="n">
         <v>407310.8162882004</v>
       </c>
       <c r="H2" t="n">
-        <v>416080.8782663625</v>
+        <v>393412.9590576722</v>
       </c>
       <c r="I2" t="n">
-        <v>8770.061978162092</v>
+        <v>-13897.8572305282</v>
       </c>
       <c r="J2" t="n">
-        <v>2.153162063822206</v>
+        <v>-3.412101195145898</v>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
@@ -674,13 +674,13 @@
         <v>0.6008851225299069</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6012357883305818</v>
+        <v>0.6022306085664774</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0003506658006748875</v>
+        <v>0.001345486036570476</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0583582098352642</v>
+        <v>0.2239173489444331</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
@@ -690,13 +690,13 @@
         <v>19706682.43160022</v>
       </c>
       <c r="L3" t="n">
-        <v>19718182.89868522</v>
+        <v>19750809.11246596</v>
       </c>
       <c r="M3" t="n">
-        <v>11500.46708500013</v>
+        <v>44126.68086573854</v>
       </c>
       <c r="N3" t="n">
-        <v>0.05835820983525267</v>
+        <v>0.2239173489444382</v>
       </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
@@ -733,25 +733,25 @@
         <v>0.5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.495949831696369</v>
+        <v>0.4895306719160386</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.004050168303630974</v>
+        <v>-0.01046932808396139</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.8100336607261949</v>
+        <v>-2.093865616792279</v>
       </c>
       <c r="G4" t="n">
         <v>16398044.89469565</v>
       </c>
       <c r="H4" t="n">
-        <v>16265215.21134762</v>
+        <v>16054691.87081945</v>
       </c>
       <c r="I4" t="n">
-        <v>-132829.683348028</v>
+        <v>-343353.0238761939</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.8100336607261945</v>
+        <v>-2.09386561679228</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
@@ -761,22 +761,22 @@
         <v>12578494.31336926</v>
       </c>
       <c r="P4" t="n">
-        <v>12405990.81485661</v>
+        <v>12293394.08299518</v>
       </c>
       <c r="Q4" t="n">
-        <v>-172503.4985126555</v>
+        <v>-285100.2303740829</v>
       </c>
       <c r="R4" t="n">
-        <v>-1.371416118774306</v>
+        <v>-2.266568821922187</v>
       </c>
       <c r="S4" t="n">
         <v>6289247156.68463</v>
       </c>
       <c r="T4" t="n">
-        <v>6202995407.428303</v>
+        <v>6146697041.497589</v>
       </c>
       <c r="U4" t="n">
-        <v>-86251749.25632763</v>
+        <v>-142550115.1870413</v>
       </c>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
@@ -806,25 +806,25 @@
         <v>0.01472797687002055</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01477426095201467</v>
+        <v>0.01462334107219707</v>
       </c>
       <c r="E5" t="n">
-        <v>4.628408199412737e-05</v>
+        <v>-0.0001046357978234779</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3142596053931935</v>
+        <v>-0.710456016783057</v>
       </c>
       <c r="G5" t="n">
         <v>483020.051845272</v>
       </c>
       <c r="H5" t="n">
-        <v>484537.9887541709</v>
+        <v>479588.4068246686</v>
       </c>
       <c r="I5" t="n">
-        <v>1517.936908898933</v>
+        <v>-3431.645020603377</v>
       </c>
       <c r="J5" t="n">
-        <v>0.31425960539319</v>
+        <v>-0.7104560167830571</v>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
@@ -841,19 +841,19 @@
         <v>483020.051845272</v>
       </c>
       <c r="W5" t="n">
-        <v>484537.9887541709</v>
+        <v>479588.4068246686</v>
       </c>
       <c r="X5" t="n">
-        <v>1517.936908898933</v>
+        <v>-3431.645020603377</v>
       </c>
       <c r="Y5" t="n">
         <v>1.472797687002054</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.477426095201467</v>
+        <v>1.462334107219707</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.004628408199412792</v>
+        <v>-0.0104635797823478</v>
       </c>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr"/>
@@ -877,25 +877,25 @@
         <v>0.002185550222134321</v>
       </c>
       <c r="D6" t="n">
-        <v>0.002185295615574064</v>
+        <v>0.002119949431152862</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.546065602567621e-07</v>
+        <v>-6.560079098145814e-05</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.01164954059065838</v>
+        <v>-3.001568681290474</v>
       </c>
       <c r="G6" t="n">
         <v>71677.50132434127</v>
       </c>
       <c r="H6" t="n">
-        <v>71669.15122473011</v>
+        <v>69526.05189305828</v>
       </c>
       <c r="I6" t="n">
-        <v>-8.350099611154292</v>
+        <v>-2151.449431282992</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.011649540590666</v>
+        <v>-3.001568681290474</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
@@ -912,19 +912,19 @@
         <v>71677.50132434127</v>
       </c>
       <c r="W6" t="n">
-        <v>71669.15122473011</v>
+        <v>69526.05189305828</v>
       </c>
       <c r="X6" t="n">
-        <v>-8.350099611154292</v>
+        <v>-2151.449431282992</v>
       </c>
       <c r="Y6" t="n">
         <v>0.2185550222134321</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.2185295615574064</v>
+        <v>0.2119949431152862</v>
       </c>
       <c r="AA6" t="n">
-        <v>-2.546065602568315e-05</v>
+        <v>-0.006560079098145821</v>
       </c>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr"/>
@@ -948,25 +948,25 @@
         <v>0.2792093878113719</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2783741219645466</v>
+        <v>0.2696466321211046</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.000835265846825306</v>
+        <v>-0.009562755690267377</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.2991539265110936</v>
+        <v>-3.42494060290257</v>
       </c>
       <c r="G7" t="n">
         <v>9156976.15270273</v>
       </c>
       <c r="H7" t="n">
-        <v>9129582.698992236</v>
+        <v>8843355.158450708</v>
       </c>
       <c r="I7" t="n">
-        <v>-27393.45371049456</v>
+        <v>-313620.9942520224</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.2991539265110922</v>
+        <v>-3.42494060290258</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
@@ -983,19 +983,19 @@
         <v>9156976.15270273</v>
       </c>
       <c r="W7" t="n">
-        <v>9129582.698992236</v>
+        <v>8843355.158450708</v>
       </c>
       <c r="X7" t="n">
-        <v>-27393.45371049456</v>
+        <v>-313620.9942520224</v>
       </c>
       <c r="Y7" t="n">
         <v>27.9209387811372</v>
       </c>
       <c r="Z7" t="n">
-        <v>27.83741219645466</v>
+        <v>26.96466321211046</v>
       </c>
       <c r="AA7" t="n">
-        <v>-0.08352658468253082</v>
+        <v>-0.9562755690267402</v>
       </c>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
@@ -1019,25 +1019,25 @@
         <v>0.3169596721056587</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3151279577289355</v>
+        <v>0.308726674879951</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.001831714376723248</v>
+        <v>-0.008232997225707694</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.5779013981667185</v>
+        <v>-2.597490453915922</v>
       </c>
       <c r="G8" t="n">
         <v>10395037.86599321</v>
       </c>
       <c r="H8" t="n">
-        <v>10334964.79682567</v>
+        <v>10125027.74974309</v>
       </c>
       <c r="I8" t="n">
-        <v>-60073.06916753575</v>
+        <v>-270010.1162501201</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.5779013981667299</v>
+        <v>-2.597490453915933</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
@@ -1054,19 +1054,19 @@
         <v>10395037.86599321</v>
       </c>
       <c r="W8" t="n">
-        <v>10334964.79682567</v>
+        <v>10125027.74974309</v>
       </c>
       <c r="X8" t="n">
-        <v>-60073.06916753575</v>
+        <v>-270010.1162501201</v>
       </c>
       <c r="Y8" t="n">
         <v>31.69596721056587</v>
       </c>
       <c r="Z8" t="n">
-        <v>31.51279577289355</v>
+        <v>30.8726674879951</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0.1831714376723248</v>
+        <v>-0.8232997225707699</v>
       </c>
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
@@ -1090,25 +1090,25 @@
         <v>4561.844917532106</v>
       </c>
       <c r="D9" t="n">
-        <v>4561.758083863504</v>
+        <v>4559.647230968163</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.08683366860168462</v>
+        <v>-2.197686563942625</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.00190347699607159</v>
+        <v>-0.04817538964326615</v>
       </c>
       <c r="G9" t="n">
         <v>149610675520.6613</v>
       </c>
       <c r="H9" t="n">
-        <v>149607827715.869</v>
+        <v>149538599994.7812</v>
       </c>
       <c r="I9" t="n">
-        <v>-2847804.792205811</v>
+        <v>-72075525.88000488</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.001903476996073404</v>
+        <v>-0.04817538964326863</v>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
@@ -1131,10 +1131,10 @@
         <v>149610675520.6613</v>
       </c>
       <c r="AC9" t="n">
-        <v>149607827715.869</v>
+        <v>149538599994.7812</v>
       </c>
       <c r="AD9" t="n">
-        <v>2847804.792205811</v>
+        <v>72075525.88000488</v>
       </c>
       <c r="AE9" t="n">
         <v>0</v>
@@ -1143,7 +1143,7 @@
         <v>4561.844917532106</v>
       </c>
       <c r="AG9" t="n">
-        <v>4561.758083863504</v>
+        <v>4559.647230968163</v>
       </c>
     </row>
     <row r="10">
@@ -1161,25 +1161,25 @@
         <v>0.5</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4947110524481615</v>
+        <v>0.4883623956930155</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.005288947551838452</v>
+        <v>-0.01163760430698446</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.05778951036769</v>
+        <v>-2.327520861396892</v>
       </c>
       <c r="G10" t="n">
         <v>16398044.89469565</v>
       </c>
       <c r="H10" t="n">
-        <v>16224588.09589417</v>
+        <v>16016376.97891038</v>
       </c>
       <c r="I10" t="n">
-        <v>-173456.7988014743</v>
+        <v>-381667.9157852698</v>
       </c>
       <c r="J10" t="n">
-        <v>-1.057789510367685</v>
+        <v>-2.327520861396896</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
@@ -1196,19 +1196,19 @@
         <v>16398044.89469565</v>
       </c>
       <c r="W10" t="n">
-        <v>16224588.09589417</v>
+        <v>16016376.97891038</v>
       </c>
       <c r="X10" t="n">
-        <v>-173456.7988014743</v>
+        <v>-381667.9157852698</v>
       </c>
       <c r="Y10" t="n">
         <v>50</v>
       </c>
       <c r="Z10" t="n">
-        <v>49.47110524481616</v>
+        <v>48.83623956930155</v>
       </c>
       <c r="AA10" t="n">
-        <v>-0.5288947551838419</v>
+        <v>-1.163760430698446</v>
       </c>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr"/>
@@ -1232,25 +1232,25 @@
         <v>0.5</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4965240233579161</v>
+        <v>0.4942365598477791</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.003475976642083933</v>
+        <v>-0.005763440152220911</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.6951953284167867</v>
+        <v>-1.152688030444182</v>
       </c>
       <c r="G11" t="n">
         <v>16398044.89469565</v>
       </c>
       <c r="H11" t="n">
-        <v>16284046.45263604</v>
+        <v>16209026.59396763</v>
       </c>
       <c r="I11" t="n">
-        <v>-113998.4420596119</v>
+        <v>-189018.3007280193</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.695195328416789</v>
+        <v>-1.152688030444178</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
@@ -1267,19 +1267,19 @@
         <v>16398044.89469565</v>
       </c>
       <c r="W11" t="n">
-        <v>16284046.45263604</v>
+        <v>16209026.59396763</v>
       </c>
       <c r="X11" t="n">
-        <v>-113998.4420596119</v>
+        <v>-189018.3007280193</v>
       </c>
       <c r="Y11" t="n">
         <v>50</v>
       </c>
       <c r="Z11" t="n">
-        <v>49.65240233579161</v>
+        <v>49.42365598477791</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0.3475976642083936</v>
+        <v>-0.5763440152220909</v>
       </c>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
@@ -1303,25 +1303,25 @@
         <v>0.5</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4972344043794172</v>
+        <v>0.4940754329502459</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.002765595620582761</v>
+        <v>-0.005924567049754137</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.5531191241165523</v>
+        <v>-1.184913409950827</v>
       </c>
       <c r="G12" t="n">
         <v>16398044.89469565</v>
       </c>
       <c r="H12" t="n">
-        <v>16307344.17240187</v>
+        <v>16203742.26176864</v>
       </c>
       <c r="I12" t="n">
-        <v>-90700.72229377925</v>
+        <v>-194302.6329270061</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.5531191241165503</v>
+        <v>-1.18491340995083</v>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
@@ -1338,19 +1338,19 @@
         <v>16398044.89469565</v>
       </c>
       <c r="W12" t="n">
-        <v>16307344.17240187</v>
+        <v>16203742.26176864</v>
       </c>
       <c r="X12" t="n">
-        <v>-90700.72229377925</v>
+        <v>-194302.6329270061</v>
       </c>
       <c r="Y12" t="n">
         <v>50</v>
       </c>
       <c r="Z12" t="n">
-        <v>49.72344043794173</v>
+        <v>49.40754329502459</v>
       </c>
       <c r="AA12" t="n">
-        <v>-0.2765595620582744</v>
+        <v>-0.5924567049754117</v>
       </c>
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="inlineStr"/>
@@ -1374,25 +1374,25 @@
         <v>0.5</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4977200936478789</v>
+        <v>0.4961351580935027</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.002279906352121053</v>
+        <v>-0.003864841906497274</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.4559812704242105</v>
+        <v>-0.7729683812994548</v>
       </c>
       <c r="G13" t="n">
         <v>16398044.89469565</v>
       </c>
       <c r="H13" t="n">
-        <v>16323272.88126008</v>
+        <v>16271293.19250836</v>
       </c>
       <c r="I13" t="n">
-        <v>-74772.01343556494</v>
+        <v>-126751.7021872867</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.4559812704242065</v>
+        <v>-0.7729683812994539</v>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
@@ -1409,19 +1409,19 @@
         <v>16398044.89469565</v>
       </c>
       <c r="W13" t="n">
-        <v>16323272.88126008</v>
+        <v>16271293.19250836</v>
       </c>
       <c r="X13" t="n">
-        <v>-74772.01343556494</v>
+        <v>-126751.7021872867</v>
       </c>
       <c r="Y13" t="n">
         <v>50</v>
       </c>
       <c r="Z13" t="n">
-        <v>49.77200936478789</v>
+        <v>49.61351580935028</v>
       </c>
       <c r="AA13" t="n">
-        <v>-0.2279906352121088</v>
+        <v>-0.3864841906497247</v>
       </c>
       <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="inlineStr"/>
@@ -1445,25 +1445,25 @@
         <v>0.5000000000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4953096574934138</v>
+        <v>0.4881070872092389</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.004690342506586287</v>
+        <v>-0.01189291279076121</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.9380685013172572</v>
+        <v>-2.378582558152242</v>
       </c>
       <c r="G14" t="n">
         <v>16398044.89469565</v>
       </c>
       <c r="H14" t="n">
-        <v>16244220.00070665</v>
+        <v>16008003.85895245</v>
       </c>
       <c r="I14" t="n">
-        <v>-153824.8939890023</v>
+        <v>-390041.0357432049</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.9380685013172562</v>
+        <v>-2.378582558152242</v>
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
@@ -1480,19 +1480,19 @@
         <v>16398044.89469565</v>
       </c>
       <c r="W14" t="n">
-        <v>16244220.00070665</v>
+        <v>16008003.85895245</v>
       </c>
       <c r="X14" t="n">
-        <v>-153824.8939890023</v>
+        <v>-390041.0357432049</v>
       </c>
       <c r="Y14" t="n">
         <v>50.00000000000001</v>
       </c>
       <c r="Z14" t="n">
-        <v>49.53096574934138</v>
+        <v>48.81070872092389</v>
       </c>
       <c r="AA14" t="n">
-        <v>-0.4690342506586305</v>
+        <v>-1.189291279076123</v>
       </c>
       <c r="AB14" t="inlineStr"/>
       <c r="AC14" t="inlineStr"/>
@@ -1516,25 +1516,25 @@
         <v>0.5</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4959862318274226</v>
+        <v>0.489842853830337</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.00401376817257737</v>
+        <v>-0.01015714616966301</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.802753634515474</v>
+        <v>-2.031429233932602</v>
       </c>
       <c r="G15" t="n">
         <v>16398044.89469565</v>
       </c>
       <c r="H15" t="n">
-        <v>16266408.993314</v>
+        <v>16064930.21691141</v>
       </c>
       <c r="I15" t="n">
-        <v>-131635.9013816491</v>
+        <v>-333114.6777842399</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.802753634515478</v>
+        <v>-2.031429233932601</v>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
@@ -1551,19 +1551,19 @@
         <v>16398044.89469565</v>
       </c>
       <c r="W15" t="n">
-        <v>16266408.993314</v>
+        <v>16064930.21691141</v>
       </c>
       <c r="X15" t="n">
-        <v>-131635.9013816491</v>
+        <v>-333114.6777842399</v>
       </c>
       <c r="Y15" t="n">
         <v>50</v>
       </c>
       <c r="Z15" t="n">
-        <v>49.59862318274227</v>
+        <v>48.9842853830337</v>
       </c>
       <c r="AA15" t="n">
-        <v>-0.4013768172577343</v>
+        <v>-1.015714616966299</v>
       </c>
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr"/>

--- a/Output.xlsx
+++ b/Output.xlsx
@@ -615,25 +615,25 @@
         <v>0.0124194932659306</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01199572758777272</v>
+        <v>0.01268690508345157</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.0004237656781578818</v>
+        <v>0.0002674118175209714</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.412101195145895</v>
+        <v>2.153162063822208</v>
       </c>
       <c r="G2" t="n">
         <v>407310.8162882004</v>
       </c>
       <c r="H2" t="n">
-        <v>393412.9590576722</v>
+        <v>416080.8782663625</v>
       </c>
       <c r="I2" t="n">
-        <v>-13897.8572305282</v>
+        <v>8770.061978162092</v>
       </c>
       <c r="J2" t="n">
-        <v>-3.412101195145898</v>
+        <v>2.153162063822206</v>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
@@ -674,13 +674,13 @@
         <v>0.6008851225299069</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6022306085664774</v>
+        <v>0.6012357883305818</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001345486036570476</v>
+        <v>0.0003506658006748875</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2239173489444331</v>
+        <v>0.0583582098352642</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
@@ -690,13 +690,13 @@
         <v>19706682.43160022</v>
       </c>
       <c r="L3" t="n">
-        <v>19750809.11246596</v>
+        <v>19718182.89868522</v>
       </c>
       <c r="M3" t="n">
-        <v>44126.68086573854</v>
+        <v>11500.46708500013</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2239173489444382</v>
+        <v>0.05835820983525267</v>
       </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
@@ -733,25 +733,25 @@
         <v>0.5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4895306719160386</v>
+        <v>0.495949831696369</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.01046932808396139</v>
+        <v>-0.004050168303630974</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.093865616792279</v>
+        <v>-0.8100336607261949</v>
       </c>
       <c r="G4" t="n">
         <v>16398044.89469565</v>
       </c>
       <c r="H4" t="n">
-        <v>16054691.87081945</v>
+        <v>16265215.21134762</v>
       </c>
       <c r="I4" t="n">
-        <v>-343353.0238761939</v>
+        <v>-132829.683348028</v>
       </c>
       <c r="J4" t="n">
-        <v>-2.09386561679228</v>
+        <v>-0.8100336607261945</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
@@ -761,22 +761,22 @@
         <v>12578494.31336926</v>
       </c>
       <c r="P4" t="n">
-        <v>12293394.08299518</v>
+        <v>12405990.81485661</v>
       </c>
       <c r="Q4" t="n">
-        <v>-285100.2303740829</v>
+        <v>-172503.4985126555</v>
       </c>
       <c r="R4" t="n">
-        <v>-2.266568821922187</v>
+        <v>-1.371416118774306</v>
       </c>
       <c r="S4" t="n">
         <v>6289247156.68463</v>
       </c>
       <c r="T4" t="n">
-        <v>6146697041.497589</v>
+        <v>6202995407.428303</v>
       </c>
       <c r="U4" t="n">
-        <v>-142550115.1870413</v>
+        <v>-86251749.25632763</v>
       </c>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
@@ -806,25 +806,25 @@
         <v>0.01472797687002055</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01462334107219707</v>
+        <v>0.01477426095201467</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.0001046357978234779</v>
+        <v>4.628408199412737e-05</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.710456016783057</v>
+        <v>0.3142596053931935</v>
       </c>
       <c r="G5" t="n">
         <v>483020.051845272</v>
       </c>
       <c r="H5" t="n">
-        <v>479588.4068246686</v>
+        <v>484537.9887541709</v>
       </c>
       <c r="I5" t="n">
-        <v>-3431.645020603377</v>
+        <v>1517.936908898933</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.7104560167830571</v>
+        <v>0.31425960539319</v>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
@@ -841,19 +841,19 @@
         <v>483020.051845272</v>
       </c>
       <c r="W5" t="n">
-        <v>479588.4068246686</v>
+        <v>484537.9887541709</v>
       </c>
       <c r="X5" t="n">
-        <v>-3431.645020603377</v>
+        <v>1517.936908898933</v>
       </c>
       <c r="Y5" t="n">
         <v>1.472797687002054</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.462334107219707</v>
+        <v>1.477426095201467</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0.0104635797823478</v>
+        <v>0.004628408199412792</v>
       </c>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr"/>
@@ -877,25 +877,25 @@
         <v>0.002185550222134321</v>
       </c>
       <c r="D6" t="n">
-        <v>0.002119949431152862</v>
+        <v>0.002185295615574064</v>
       </c>
       <c r="E6" t="n">
-        <v>-6.560079098145814e-05</v>
+        <v>-2.546065602567621e-07</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.001568681290474</v>
+        <v>-0.01164954059065838</v>
       </c>
       <c r="G6" t="n">
         <v>71677.50132434127</v>
       </c>
       <c r="H6" t="n">
-        <v>69526.05189305828</v>
+        <v>71669.15122473011</v>
       </c>
       <c r="I6" t="n">
-        <v>-2151.449431282992</v>
+        <v>-8.350099611154292</v>
       </c>
       <c r="J6" t="n">
-        <v>-3.001568681290474</v>
+        <v>-0.011649540590666</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
@@ -912,19 +912,19 @@
         <v>71677.50132434127</v>
       </c>
       <c r="W6" t="n">
-        <v>69526.05189305828</v>
+        <v>71669.15122473011</v>
       </c>
       <c r="X6" t="n">
-        <v>-2151.449431282992</v>
+        <v>-8.350099611154292</v>
       </c>
       <c r="Y6" t="n">
         <v>0.2185550222134321</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.2119949431152862</v>
+        <v>0.2185295615574064</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0.006560079098145821</v>
+        <v>-2.546065602568315e-05</v>
       </c>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr"/>
@@ -948,25 +948,25 @@
         <v>0.2792093878113719</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2696466321211046</v>
+        <v>0.2783741219645466</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.009562755690267377</v>
+        <v>-0.000835265846825306</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.42494060290257</v>
+        <v>-0.2991539265110936</v>
       </c>
       <c r="G7" t="n">
         <v>9156976.15270273</v>
       </c>
       <c r="H7" t="n">
-        <v>8843355.158450708</v>
+        <v>9129582.698992236</v>
       </c>
       <c r="I7" t="n">
-        <v>-313620.9942520224</v>
+        <v>-27393.45371049456</v>
       </c>
       <c r="J7" t="n">
-        <v>-3.42494060290258</v>
+        <v>-0.2991539265110922</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
@@ -983,19 +983,19 @@
         <v>9156976.15270273</v>
       </c>
       <c r="W7" t="n">
-        <v>8843355.158450708</v>
+        <v>9129582.698992236</v>
       </c>
       <c r="X7" t="n">
-        <v>-313620.9942520224</v>
+        <v>-27393.45371049456</v>
       </c>
       <c r="Y7" t="n">
         <v>27.9209387811372</v>
       </c>
       <c r="Z7" t="n">
-        <v>26.96466321211046</v>
+        <v>27.83741219645466</v>
       </c>
       <c r="AA7" t="n">
-        <v>-0.9562755690267402</v>
+        <v>-0.08352658468253082</v>
       </c>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
@@ -1019,25 +1019,25 @@
         <v>0.3169596721056587</v>
       </c>
       <c r="D8" t="n">
-        <v>0.308726674879951</v>
+        <v>0.3151279577289355</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.008232997225707694</v>
+        <v>-0.001831714376723248</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.597490453915922</v>
+        <v>-0.5779013981667185</v>
       </c>
       <c r="G8" t="n">
         <v>10395037.86599321</v>
       </c>
       <c r="H8" t="n">
-        <v>10125027.74974309</v>
+        <v>10334964.79682567</v>
       </c>
       <c r="I8" t="n">
-        <v>-270010.1162501201</v>
+        <v>-60073.06916753575</v>
       </c>
       <c r="J8" t="n">
-        <v>-2.597490453915933</v>
+        <v>-0.5779013981667299</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
@@ -1054,19 +1054,19 @@
         <v>10395037.86599321</v>
       </c>
       <c r="W8" t="n">
-        <v>10125027.74974309</v>
+        <v>10334964.79682567</v>
       </c>
       <c r="X8" t="n">
-        <v>-270010.1162501201</v>
+        <v>-60073.06916753575</v>
       </c>
       <c r="Y8" t="n">
         <v>31.69596721056587</v>
       </c>
       <c r="Z8" t="n">
-        <v>30.8726674879951</v>
+        <v>31.51279577289355</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0.8232997225707699</v>
+        <v>-0.1831714376723248</v>
       </c>
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
@@ -1090,25 +1090,25 @@
         <v>4561.844917532106</v>
       </c>
       <c r="D9" t="n">
-        <v>4559.647230968163</v>
+        <v>4561.758083863504</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.197686563942625</v>
+        <v>-0.08683366860168462</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.04817538964326615</v>
+        <v>-0.00190347699607159</v>
       </c>
       <c r="G9" t="n">
         <v>149610675520.6613</v>
       </c>
       <c r="H9" t="n">
-        <v>149538599994.7812</v>
+        <v>149607827715.869</v>
       </c>
       <c r="I9" t="n">
-        <v>-72075525.88000488</v>
+        <v>-2847804.792205811</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.04817538964326863</v>
+        <v>-0.001903476996073404</v>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
@@ -1131,10 +1131,10 @@
         <v>149610675520.6613</v>
       </c>
       <c r="AC9" t="n">
-        <v>149538599994.7812</v>
+        <v>149607827715.869</v>
       </c>
       <c r="AD9" t="n">
-        <v>72075525.88000488</v>
+        <v>2847804.792205811</v>
       </c>
       <c r="AE9" t="n">
         <v>0</v>
@@ -1143,7 +1143,7 @@
         <v>4561.844917532106</v>
       </c>
       <c r="AG9" t="n">
-        <v>4559.647230968163</v>
+        <v>4561.758083863504</v>
       </c>
     </row>
     <row r="10">
@@ -1161,25 +1161,25 @@
         <v>0.5</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4883623956930155</v>
+        <v>0.4947110524481615</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.01163760430698446</v>
+        <v>-0.005288947551838452</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.327520861396892</v>
+        <v>-1.05778951036769</v>
       </c>
       <c r="G10" t="n">
         <v>16398044.89469565</v>
       </c>
       <c r="H10" t="n">
-        <v>16016376.97891038</v>
+        <v>16224588.09589417</v>
       </c>
       <c r="I10" t="n">
-        <v>-381667.9157852698</v>
+        <v>-173456.7988014743</v>
       </c>
       <c r="J10" t="n">
-        <v>-2.327520861396896</v>
+        <v>-1.057789510367685</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
@@ -1196,19 +1196,19 @@
         <v>16398044.89469565</v>
       </c>
       <c r="W10" t="n">
-        <v>16016376.97891038</v>
+        <v>16224588.09589417</v>
       </c>
       <c r="X10" t="n">
-        <v>-381667.9157852698</v>
+        <v>-173456.7988014743</v>
       </c>
       <c r="Y10" t="n">
         <v>50</v>
       </c>
       <c r="Z10" t="n">
-        <v>48.83623956930155</v>
+        <v>49.47110524481616</v>
       </c>
       <c r="AA10" t="n">
-        <v>-1.163760430698446</v>
+        <v>-0.5288947551838419</v>
       </c>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr"/>
@@ -1232,25 +1232,25 @@
         <v>0.5</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4942365598477791</v>
+        <v>0.4965240233579161</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.005763440152220911</v>
+        <v>-0.003475976642083933</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.152688030444182</v>
+        <v>-0.6951953284167867</v>
       </c>
       <c r="G11" t="n">
         <v>16398044.89469565</v>
       </c>
       <c r="H11" t="n">
-        <v>16209026.59396763</v>
+        <v>16284046.45263604</v>
       </c>
       <c r="I11" t="n">
-        <v>-189018.3007280193</v>
+        <v>-113998.4420596119</v>
       </c>
       <c r="J11" t="n">
-        <v>-1.152688030444178</v>
+        <v>-0.695195328416789</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
@@ -1267,19 +1267,19 @@
         <v>16398044.89469565</v>
       </c>
       <c r="W11" t="n">
-        <v>16209026.59396763</v>
+        <v>16284046.45263604</v>
       </c>
       <c r="X11" t="n">
-        <v>-189018.3007280193</v>
+        <v>-113998.4420596119</v>
       </c>
       <c r="Y11" t="n">
         <v>50</v>
       </c>
       <c r="Z11" t="n">
-        <v>49.42365598477791</v>
+        <v>49.65240233579161</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0.5763440152220909</v>
+        <v>-0.3475976642083936</v>
       </c>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
@@ -1303,25 +1303,25 @@
         <v>0.5</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4940754329502459</v>
+        <v>0.4972344043794172</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.005924567049754137</v>
+        <v>-0.002765595620582761</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.184913409950827</v>
+        <v>-0.5531191241165523</v>
       </c>
       <c r="G12" t="n">
         <v>16398044.89469565</v>
       </c>
       <c r="H12" t="n">
-        <v>16203742.26176864</v>
+        <v>16307344.17240187</v>
       </c>
       <c r="I12" t="n">
-        <v>-194302.6329270061</v>
+        <v>-90700.72229377925</v>
       </c>
       <c r="J12" t="n">
-        <v>-1.18491340995083</v>
+        <v>-0.5531191241165503</v>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
@@ -1338,19 +1338,19 @@
         <v>16398044.89469565</v>
       </c>
       <c r="W12" t="n">
-        <v>16203742.26176864</v>
+        <v>16307344.17240187</v>
       </c>
       <c r="X12" t="n">
-        <v>-194302.6329270061</v>
+        <v>-90700.72229377925</v>
       </c>
       <c r="Y12" t="n">
         <v>50</v>
       </c>
       <c r="Z12" t="n">
-        <v>49.40754329502459</v>
+        <v>49.72344043794173</v>
       </c>
       <c r="AA12" t="n">
-        <v>-0.5924567049754117</v>
+        <v>-0.2765595620582744</v>
       </c>
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="inlineStr"/>
@@ -1374,25 +1374,25 @@
         <v>0.5</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4961351580935027</v>
+        <v>0.4977200936478789</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.003864841906497274</v>
+        <v>-0.002279906352121053</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.7729683812994548</v>
+        <v>-0.4559812704242105</v>
       </c>
       <c r="G13" t="n">
         <v>16398044.89469565</v>
       </c>
       <c r="H13" t="n">
-        <v>16271293.19250836</v>
+        <v>16323272.88126008</v>
       </c>
       <c r="I13" t="n">
-        <v>-126751.7021872867</v>
+        <v>-74772.01343556494</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.7729683812994539</v>
+        <v>-0.4559812704242065</v>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
@@ -1409,19 +1409,19 @@
         <v>16398044.89469565</v>
       </c>
       <c r="W13" t="n">
-        <v>16271293.19250836</v>
+        <v>16323272.88126008</v>
       </c>
       <c r="X13" t="n">
-        <v>-126751.7021872867</v>
+        <v>-74772.01343556494</v>
       </c>
       <c r="Y13" t="n">
         <v>50</v>
       </c>
       <c r="Z13" t="n">
-        <v>49.61351580935028</v>
+        <v>49.77200936478789</v>
       </c>
       <c r="AA13" t="n">
-        <v>-0.3864841906497247</v>
+        <v>-0.2279906352121088</v>
       </c>
       <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="inlineStr"/>
@@ -1445,25 +1445,25 @@
         <v>0.5000000000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4881070872092389</v>
+        <v>0.4953096574934138</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.01189291279076121</v>
+        <v>-0.004690342506586287</v>
       </c>
       <c r="F14" t="n">
-        <v>-2.378582558152242</v>
+        <v>-0.9380685013172572</v>
       </c>
       <c r="G14" t="n">
         <v>16398044.89469565</v>
       </c>
       <c r="H14" t="n">
-        <v>16008003.85895245</v>
+        <v>16244220.00070665</v>
       </c>
       <c r="I14" t="n">
-        <v>-390041.0357432049</v>
+        <v>-153824.8939890023</v>
       </c>
       <c r="J14" t="n">
-        <v>-2.378582558152242</v>
+        <v>-0.9380685013172562</v>
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
@@ -1480,19 +1480,19 @@
         <v>16398044.89469565</v>
       </c>
       <c r="W14" t="n">
-        <v>16008003.85895245</v>
+        <v>16244220.00070665</v>
       </c>
       <c r="X14" t="n">
-        <v>-390041.0357432049</v>
+        <v>-153824.8939890023</v>
       </c>
       <c r="Y14" t="n">
         <v>50.00000000000001</v>
       </c>
       <c r="Z14" t="n">
-        <v>48.81070872092389</v>
+        <v>49.53096574934138</v>
       </c>
       <c r="AA14" t="n">
-        <v>-1.189291279076123</v>
+        <v>-0.4690342506586305</v>
       </c>
       <c r="AB14" t="inlineStr"/>
       <c r="AC14" t="inlineStr"/>
@@ -1516,25 +1516,25 @@
         <v>0.5</v>
       </c>
       <c r="D15" t="n">
-        <v>0.489842853830337</v>
+        <v>0.4959862318274226</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.01015714616966301</v>
+        <v>-0.00401376817257737</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.031429233932602</v>
+        <v>-0.802753634515474</v>
       </c>
       <c r="G15" t="n">
         <v>16398044.89469565</v>
       </c>
       <c r="H15" t="n">
-        <v>16064930.21691141</v>
+        <v>16266408.993314</v>
       </c>
       <c r="I15" t="n">
-        <v>-333114.6777842399</v>
+        <v>-131635.9013816491</v>
       </c>
       <c r="J15" t="n">
-        <v>-2.031429233932601</v>
+        <v>-0.802753634515478</v>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
@@ -1551,19 +1551,19 @@
         <v>16398044.89469565</v>
       </c>
       <c r="W15" t="n">
-        <v>16064930.21691141</v>
+        <v>16266408.993314</v>
       </c>
       <c r="X15" t="n">
-        <v>-333114.6777842399</v>
+        <v>-131635.9013816491</v>
       </c>
       <c r="Y15" t="n">
         <v>50</v>
       </c>
       <c r="Z15" t="n">
-        <v>48.9842853830337</v>
+        <v>49.59862318274227</v>
       </c>
       <c r="AA15" t="n">
-        <v>-1.015714616966299</v>
+        <v>-0.4013768172577343</v>
       </c>
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr"/>

--- a/Output.xlsx
+++ b/Output.xlsx
@@ -615,25 +615,25 @@
         <v>0.0124194932659306</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01268690508345157</v>
+        <v>0.01199572758777272</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0002674118175209714</v>
+        <v>-0.0004237656781578818</v>
       </c>
       <c r="F2" t="n">
-        <v>2.153162063822208</v>
+        <v>-3.412101195145895</v>
       </c>
       <c r="G2" t="n">
         <v>407310.8162882004</v>
       </c>
       <c r="H2" t="n">
-        <v>416080.8782663625</v>
+        <v>393412.9590576722</v>
       </c>
       <c r="I2" t="n">
-        <v>8770.061978162092</v>
+        <v>-13897.8572305282</v>
       </c>
       <c r="J2" t="n">
-        <v>2.153162063822206</v>
+        <v>-3.412101195145898</v>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
@@ -671,32 +671,32 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.6008851225299069</v>
+        <v>0.6032336540490122</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6012357883305818</v>
+        <v>0.6045773668901168</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0003506658006748875</v>
+        <v>0.001343712841104572</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0583582098352642</v>
+        <v>0.2227516372943271</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>19706682.43160022</v>
+        <v>19783705.08217401</v>
       </c>
       <c r="L3" t="n">
-        <v>19718182.89868522</v>
+        <v>19827773.60916203</v>
       </c>
       <c r="M3" t="n">
-        <v>11500.46708500013</v>
+        <v>44068.52698802203</v>
       </c>
       <c r="N3" t="n">
-        <v>0.05835820983525267</v>
+        <v>0.2227516372943191</v>
       </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
@@ -730,53 +730,53 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.5</v>
+        <v>0.2314444499291578</v>
       </c>
       <c r="D4" t="n">
-        <v>0.495949831696369</v>
+        <v>0.2264983067499989</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.004050168303630974</v>
+        <v>-0.004946143179158952</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.8100336607261949</v>
+        <v>-2.137075734878457</v>
       </c>
       <c r="G4" t="n">
-        <v>16398044.89469565</v>
+        <v>7590472.961132937</v>
       </c>
       <c r="H4" t="n">
-        <v>16265215.21134762</v>
+        <v>7428258.805318055</v>
       </c>
       <c r="I4" t="n">
-        <v>-132829.683348028</v>
+        <v>-162214.1558148824</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.8100336607261945</v>
+        <v>-2.137075734878458</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="n">
-        <v>12578494.31336926</v>
+        <v>5903125.61651928</v>
       </c>
       <c r="P4" t="n">
-        <v>12405990.81485661</v>
+        <v>5769778.268229249</v>
       </c>
       <c r="Q4" t="n">
-        <v>-172503.4985126555</v>
+        <v>-133347.3482900308</v>
       </c>
       <c r="R4" t="n">
-        <v>-1.371416118774306</v>
+        <v>-2.258927845222745</v>
       </c>
       <c r="S4" t="n">
-        <v>6289247156.68463</v>
+        <v>2951562808.25964</v>
       </c>
       <c r="T4" t="n">
-        <v>6202995407.428303</v>
+        <v>2884889134.114625</v>
       </c>
       <c r="U4" t="n">
-        <v>-86251749.25632763</v>
+        <v>-66673674.14501524</v>
       </c>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
@@ -803,28 +803,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.01472797687002055</v>
+        <v>0.004835925936794315</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01477426095201467</v>
+        <v>0.004801480854810461</v>
       </c>
       <c r="E5" t="n">
-        <v>4.628408199412737e-05</v>
+        <v>-3.444508198385474e-05</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3142596053931935</v>
+        <v>-0.7122748039166212</v>
       </c>
       <c r="G5" t="n">
-        <v>483020.051845272</v>
+        <v>158599.4612379526</v>
       </c>
       <c r="H5" t="n">
-        <v>484537.9887541709</v>
+        <v>157469.7972364071</v>
       </c>
       <c r="I5" t="n">
-        <v>1517.936908898933</v>
+        <v>-1129.664001545461</v>
       </c>
       <c r="J5" t="n">
-        <v>0.31425960539319</v>
+        <v>-0.7122748039166319</v>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
@@ -838,22 +838,22 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="n">
-        <v>483020.051845272</v>
+        <v>158599.4612379526</v>
       </c>
       <c r="W5" t="n">
-        <v>484537.9887541709</v>
+        <v>157469.7972364071</v>
       </c>
       <c r="X5" t="n">
-        <v>1517.936908898933</v>
+        <v>-1129.664001545461</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.472797687002054</v>
+        <v>0.4835925936794315</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.477426095201467</v>
+        <v>0.480148085481046</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.004628408199412792</v>
+        <v>-0.003444508198385487</v>
       </c>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr"/>
@@ -874,28 +874,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.002185550222134321</v>
+        <v>0.07728514110811954</v>
       </c>
       <c r="D6" t="n">
-        <v>0.002185295615574064</v>
+        <v>0.07490782392638518</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.546065602567621e-07</v>
+        <v>-0.002377317181734367</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.01164954059065838</v>
+        <v>-3.076033953808241</v>
       </c>
       <c r="G6" t="n">
-        <v>71677.50132434127</v>
+        <v>2534650.427167665</v>
       </c>
       <c r="H6" t="n">
-        <v>71669.15122473011</v>
+        <v>2456683.719417642</v>
       </c>
       <c r="I6" t="n">
-        <v>-8.350099611154292</v>
+        <v>-77966.70775002288</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.011649540590666</v>
+        <v>-3.076033953808237</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
@@ -909,22 +909,22 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="n">
-        <v>71677.50132434127</v>
+        <v>2534650.427167665</v>
       </c>
       <c r="W6" t="n">
-        <v>71669.15122473011</v>
+        <v>2456683.719417642</v>
       </c>
       <c r="X6" t="n">
-        <v>-8.350099611154292</v>
+        <v>-77966.70775002288</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.2185550222134321</v>
+        <v>7.728514110811954</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.2185295615574064</v>
+        <v>7.490782392638518</v>
       </c>
       <c r="AA6" t="n">
-        <v>-2.546065602568315e-05</v>
+        <v>-0.2377317181734364</v>
       </c>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr"/>
@@ -948,25 +948,25 @@
         <v>0.2792093878113719</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2783741219645466</v>
+        <v>0.2696466321211046</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.000835265846825306</v>
+        <v>-0.009562755690267377</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.2991539265110936</v>
+        <v>-3.42494060290257</v>
       </c>
       <c r="G7" t="n">
         <v>9156976.15270273</v>
       </c>
       <c r="H7" t="n">
-        <v>9129582.698992236</v>
+        <v>8843355.158450708</v>
       </c>
       <c r="I7" t="n">
-        <v>-27393.45371049456</v>
+        <v>-313620.9942520224</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.2991539265110922</v>
+        <v>-3.42494060290258</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
@@ -983,19 +983,19 @@
         <v>9156976.15270273</v>
       </c>
       <c r="W7" t="n">
-        <v>9129582.698992236</v>
+        <v>8843355.158450708</v>
       </c>
       <c r="X7" t="n">
-        <v>-27393.45371049456</v>
+        <v>-313620.9942520224</v>
       </c>
       <c r="Y7" t="n">
         <v>27.9209387811372</v>
       </c>
       <c r="Z7" t="n">
-        <v>27.83741219645466</v>
+        <v>26.96466321211046</v>
       </c>
       <c r="AA7" t="n">
-        <v>-0.08352658468253082</v>
+        <v>-0.9562755690267402</v>
       </c>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
@@ -1019,25 +1019,25 @@
         <v>0.3169596721056587</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3151279577289355</v>
+        <v>0.308726674879951</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.001831714376723248</v>
+        <v>-0.008232997225707694</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.5779013981667185</v>
+        <v>-2.597490453915922</v>
       </c>
       <c r="G8" t="n">
         <v>10395037.86599321</v>
       </c>
       <c r="H8" t="n">
-        <v>10334964.79682567</v>
+        <v>10125027.74974309</v>
       </c>
       <c r="I8" t="n">
-        <v>-60073.06916753575</v>
+        <v>-270010.1162501201</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.5779013981667299</v>
+        <v>-2.597490453915933</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
@@ -1054,19 +1054,19 @@
         <v>10395037.86599321</v>
       </c>
       <c r="W8" t="n">
-        <v>10334964.79682567</v>
+        <v>10125027.74974309</v>
       </c>
       <c r="X8" t="n">
-        <v>-60073.06916753575</v>
+        <v>-270010.1162501201</v>
       </c>
       <c r="Y8" t="n">
         <v>31.69596721056587</v>
       </c>
       <c r="Z8" t="n">
-        <v>31.51279577289355</v>
+        <v>30.8726674879951</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0.1831714376723248</v>
+        <v>-0.8232997225707699</v>
       </c>
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
@@ -1090,25 +1090,25 @@
         <v>4561.844917532106</v>
       </c>
       <c r="D9" t="n">
-        <v>4561.758083863504</v>
+        <v>4559.647230968163</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.08683366860168462</v>
+        <v>-2.197686563942625</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.00190347699607159</v>
+        <v>-0.04817538964326615</v>
       </c>
       <c r="G9" t="n">
         <v>149610675520.6613</v>
       </c>
       <c r="H9" t="n">
-        <v>149607827715.869</v>
+        <v>149538599994.7812</v>
       </c>
       <c r="I9" t="n">
-        <v>-2847804.792205811</v>
+        <v>-72075525.88000488</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.001903476996073404</v>
+        <v>-0.04817538964326863</v>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
@@ -1131,10 +1131,10 @@
         <v>149610675520.6613</v>
       </c>
       <c r="AC9" t="n">
-        <v>149607827715.869</v>
+        <v>149538599994.7812</v>
       </c>
       <c r="AD9" t="n">
-        <v>2847804.792205811</v>
+        <v>72075525.88000488</v>
       </c>
       <c r="AE9" t="n">
         <v>0</v>
@@ -1143,7 +1143,7 @@
         <v>4561.844917532106</v>
       </c>
       <c r="AG9" t="n">
-        <v>4561.758083863504</v>
+        <v>4559.647230968163</v>
       </c>
     </row>
     <row r="10">
@@ -1158,28 +1158,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.5</v>
+        <v>0.002275189685458002</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4947110524481615</v>
+        <v>0.00222012670189037</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.005288947551838452</v>
+        <v>-5.506298356763167e-05</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.05778951036769</v>
+        <v>-2.420149138314477</v>
       </c>
       <c r="G10" t="n">
-        <v>16398044.89469565</v>
+        <v>74617.32521217756</v>
       </c>
       <c r="H10" t="n">
-        <v>16224588.09589417</v>
+        <v>72811.47465902173</v>
       </c>
       <c r="I10" t="n">
-        <v>-173456.7988014743</v>
+        <v>-1805.850553155833</v>
       </c>
       <c r="J10" t="n">
-        <v>-1.057789510367685</v>
+        <v>-2.420149138314486</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
@@ -1193,22 +1193,22 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="n">
-        <v>16398044.89469565</v>
+        <v>74617.32521217756</v>
       </c>
       <c r="W10" t="n">
-        <v>16224588.09589417</v>
+        <v>72811.47465902173</v>
       </c>
       <c r="X10" t="n">
-        <v>-173456.7988014743</v>
+        <v>-1805.850553155833</v>
       </c>
       <c r="Y10" t="n">
-        <v>50</v>
+        <v>0.2275189685458001</v>
       </c>
       <c r="Z10" t="n">
-        <v>49.47110524481616</v>
+        <v>0.222012670189037</v>
       </c>
       <c r="AA10" t="n">
-        <v>-0.5288947551838419</v>
+        <v>-0.005506298356763167</v>
       </c>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr"/>
@@ -1229,28 +1229,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.5</v>
+        <v>0.0004993687301873612</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4965240233579161</v>
+        <v>0.0004937217488342609</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.003475976642083933</v>
+        <v>-5.646981353100338e-06</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.6951953284167867</v>
+        <v>-1.130823980704921</v>
       </c>
       <c r="G11" t="n">
-        <v>16398044.89469565</v>
+        <v>16377.34171323902</v>
       </c>
       <c r="H11" t="n">
-        <v>16284046.45263604</v>
+        <v>16192.14280574372</v>
       </c>
       <c r="I11" t="n">
-        <v>-113998.4420596119</v>
+        <v>-185.1989074952962</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.695195328416789</v>
+        <v>-1.130823980704917</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
@@ -1264,22 +1264,22 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="n">
-        <v>16398044.89469565</v>
+        <v>16377.34171323902</v>
       </c>
       <c r="W11" t="n">
-        <v>16284046.45263604</v>
+        <v>16192.14280574372</v>
       </c>
       <c r="X11" t="n">
-        <v>-113998.4420596119</v>
+        <v>-185.1989074952962</v>
       </c>
       <c r="Y11" t="n">
-        <v>50</v>
+        <v>0.04993687301873612</v>
       </c>
       <c r="Z11" t="n">
-        <v>49.65240233579161</v>
+        <v>0.04937217488342609</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0.3475976642083936</v>
+        <v>-0.0005646981353100364</v>
       </c>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
@@ -1300,28 +1300,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.5</v>
+        <v>0.0006176443960991844</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4972344043794172</v>
+        <v>0.0006040632121278071</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.002765595620582761</v>
+        <v>-1.358118397137723e-05</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.5531191241165523</v>
+        <v>-2.198867836760279</v>
       </c>
       <c r="G12" t="n">
-        <v>16398044.89469565</v>
+        <v>20256.32107238321</v>
       </c>
       <c r="H12" t="n">
-        <v>16307344.17240187</v>
+        <v>19810.91134341168</v>
       </c>
       <c r="I12" t="n">
-        <v>-90700.72229377925</v>
+        <v>-445.4097289715282</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.5531191241165503</v>
+        <v>-2.198867836760274</v>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
@@ -1335,22 +1335,22 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="n">
-        <v>16398044.89469565</v>
+        <v>20256.32107238321</v>
       </c>
       <c r="W12" t="n">
-        <v>16307344.17240187</v>
+        <v>19810.91134341168</v>
       </c>
       <c r="X12" t="n">
-        <v>-90700.72229377925</v>
+        <v>-445.4097289715282</v>
       </c>
       <c r="Y12" t="n">
-        <v>50</v>
+        <v>0.06176443960991844</v>
       </c>
       <c r="Z12" t="n">
-        <v>49.72344043794173</v>
+        <v>0.06040632121278072</v>
       </c>
       <c r="AA12" t="n">
-        <v>-0.2765595620582744</v>
+        <v>-0.001358118397137724</v>
       </c>
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="inlineStr"/>
@@ -1371,28 +1371,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.5</v>
+        <v>0.0001700781091161761</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4977200936478789</v>
+        <v>0.0001676104860835766</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.002279906352121053</v>
+        <v>-2.467623032599553e-06</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.4559812704242105</v>
+        <v>-1.450876332893601</v>
       </c>
       <c r="G13" t="n">
-        <v>16398044.89469565</v>
+        <v>5577.896937784001</v>
       </c>
       <c r="H13" t="n">
-        <v>16323272.88126008</v>
+        <v>5496.968551240497</v>
       </c>
       <c r="I13" t="n">
-        <v>-74772.01343556494</v>
+        <v>-80.92838654350453</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.4559812704242065</v>
+        <v>-1.450876332893593</v>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
@@ -1406,22 +1406,22 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="n">
-        <v>16398044.89469565</v>
+        <v>5577.896937784001</v>
       </c>
       <c r="W13" t="n">
-        <v>16323272.88126008</v>
+        <v>5496.968551240497</v>
       </c>
       <c r="X13" t="n">
-        <v>-74772.01343556494</v>
+        <v>-80.92838654350453</v>
       </c>
       <c r="Y13" t="n">
-        <v>50</v>
+        <v>0.01700781091161761</v>
       </c>
       <c r="Z13" t="n">
-        <v>49.77200936478789</v>
+        <v>0.01676104860835766</v>
       </c>
       <c r="AA13" t="n">
-        <v>-0.2279906352121088</v>
+        <v>-0.0002467623032599529</v>
       </c>
       <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="inlineStr"/>
@@ -1442,28 +1442,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.5000000000000001</v>
+        <v>0.02397966801076494</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4953096574934138</v>
+        <v>0.02341776596509273</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.004690342506586287</v>
+        <v>-0.0005619020456722086</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.9380685013172572</v>
+        <v>-2.343243640487265</v>
       </c>
       <c r="G14" t="n">
-        <v>16398044.89469565</v>
+        <v>786439.3452008411</v>
       </c>
       <c r="H14" t="n">
-        <v>16244220.00070665</v>
+        <v>768011.1552581327</v>
       </c>
       <c r="I14" t="n">
-        <v>-153824.8939890023</v>
+        <v>-18428.18994270836</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.9380685013172562</v>
+        <v>-2.343243640487259</v>
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
@@ -1477,22 +1477,22 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="n">
-        <v>16398044.89469565</v>
+        <v>786439.3452008411</v>
       </c>
       <c r="W14" t="n">
-        <v>16244220.00070665</v>
+        <v>768011.1552581327</v>
       </c>
       <c r="X14" t="n">
-        <v>-153824.8939890023</v>
+        <v>-18428.18994270836</v>
       </c>
       <c r="Y14" t="n">
-        <v>50.00000000000001</v>
+        <v>2.397966801076494</v>
       </c>
       <c r="Z14" t="n">
-        <v>49.53096574934138</v>
+        <v>2.341776596509273</v>
       </c>
       <c r="AA14" t="n">
-        <v>-0.4690342506586305</v>
+        <v>-0.0561902045672209</v>
       </c>
       <c r="AB14" t="inlineStr"/>
       <c r="AC14" t="inlineStr"/>
@@ -1516,25 +1516,25 @@
         <v>0.5</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4959862318274226</v>
+        <v>0.489842853830337</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.00401376817257737</v>
+        <v>-0.01015714616966301</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.802753634515474</v>
+        <v>-2.031429233932602</v>
       </c>
       <c r="G15" t="n">
         <v>16398044.89469565</v>
       </c>
       <c r="H15" t="n">
-        <v>16266408.993314</v>
+        <v>16064930.21691141</v>
       </c>
       <c r="I15" t="n">
-        <v>-131635.9013816491</v>
+        <v>-333114.6777842399</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.802753634515478</v>
+        <v>-2.031429233932601</v>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
@@ -1551,19 +1551,19 @@
         <v>16398044.89469565</v>
       </c>
       <c r="W15" t="n">
-        <v>16266408.993314</v>
+        <v>16064930.21691141</v>
       </c>
       <c r="X15" t="n">
-        <v>-131635.9013816491</v>
+        <v>-333114.6777842399</v>
       </c>
       <c r="Y15" t="n">
         <v>50</v>
       </c>
       <c r="Z15" t="n">
-        <v>49.59862318274227</v>
+        <v>48.9842853830337</v>
       </c>
       <c r="AA15" t="n">
-        <v>-0.4013768172577343</v>
+        <v>-1.015714616966299</v>
       </c>
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr"/>
